--- a/logs/approved_feedbacks.xlsx
+++ b/logs/approved_feedbacks.xlsx
@@ -153,9 +153,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -193,7 +193,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
@@ -332,13 +332,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.22"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -363,44 +370,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/logs/approved_feedbacks.xlsx
+++ b/logs/approved_feedbacks.xlsx
@@ -76,9 +76,8 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Cambria"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -332,20 +331,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.22"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -370,9 +362,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
